--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luis/Documents/21_ISYE6740_CDA/Project/cda_recomm_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F4930C-C51A-D148-B701-7F0E69805347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C5A2E5-D621-174B-BF73-0B4F0D6A0B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="500" windowWidth="28160" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,9 +163,6 @@
     <t>With clustering we don't have a "label" to validate agains. Research what we can do instead and pick a method for our project</t>
   </si>
   <si>
-    <t>brief comparison of methods, criteria for selected method</t>
-  </si>
-  <si>
     <t>Fit K-Means vs Spectral Clustering (or another method) Assess the results qualitatively , for example explore a cluster</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t>Give our data is high dimensional what alternatives we have to visualize clusters?</t>
   </si>
   <si>
-    <t>Visualize the clusters (dim reduction can be applied just for visualization). Or word clouds since we have Tag Data. Crearte functions to apply later</t>
-  </si>
-  <si>
     <t>Visualization, metrics, criteria for selection of the final method</t>
   </si>
   <si>
@@ -239,6 +233,12 @@
   </si>
   <si>
     <t>We should set a date, maybe August 1st at night?</t>
+  </si>
+  <si>
+    <t>brief comparison of methods, criteria for selected method. Python functions or library required to compute metrics</t>
+  </si>
+  <si>
+    <t>Visualize the clusters (dim reduction can be applied just for visualization). Or word clouds since we have Tag Data. Python functions or library required to compute metrics</t>
   </si>
 </sst>
 </file>
@@ -648,7 +648,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -755,18 +755,18 @@
         <v>42</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -774,54 +774,54 @@
         <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
@@ -829,27 +829,27 @@
     </row>
     <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" t="s">
         <v>63</v>
-      </c>
-      <c r="D17" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -887,10 +887,10 @@
     </row>
     <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>33</v>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luis/Documents/21_ISYE6740_CDA/Project/cda_recomm_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Luis/Library/Mobile Documents/com~apple~CloudDocs/Documents/21_ISYE6740_CDA/Project/cda_recomm_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C5A2E5-D621-174B-BF73-0B4F0D6A0B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC03DC7-C8D2-1041-A941-BE346D1C917A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="400" yWindow="500" windowWidth="28160" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>Project Tasks</t>
   </si>
@@ -648,7 +637,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -778,6 +767,9 @@
       </c>
       <c r="C11" s="1" t="s">
         <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
